--- a/External Data/reports/2021_termination_data.xlsx
+++ b/External Data/reports/2021_termination_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TedSc\OneDrive\Desktop\R Projects\20221214_IN_ab_gest\IN_ab_gest\External_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TedSc\OneDrive\Desktop\R Projects\indiana_abortion\External Data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD74BA2-9E4E-48F4-A05C-C32B512CA10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081F96D6-6770-4D7B-93B7-B9BFFC939D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="821" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="14460" windowHeight="9925" tabRatio="821" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_age" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="2021_gestation" sheetId="8" r:id="rId8"/>
     <sheet name="2021_gestation_procedure" sheetId="9" r:id="rId9"/>
     <sheet name="2021_county" sheetId="10" r:id="rId10"/>
-    <sheet name="2021_procedure_location_wrksht" sheetId="12" r:id="rId11"/>
-    <sheet name="2021_gestation_weeks" sheetId="11" r:id="rId12"/>
+    <sheet name="2021_monthly" sheetId="13" r:id="rId11"/>
+    <sheet name="2021_procedure_location_wrksht" sheetId="12" r:id="rId12"/>
+    <sheet name="2021_gestation_weeks" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="172">
   <si>
     <t>Gestational Age</t>
   </si>
@@ -515,6 +516,51 @@
   </si>
   <si>
     <t xml:space="preserve">&gt;= 21 </t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>IN Resident</t>
+  </si>
+  <si>
+    <t>Non-Resident</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1049,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1014,7 +1060,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1379,12 +1424,12 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1395,106 +1440,106 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2">
         <v>67</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
         <v>167</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>1.99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4">
         <v>498</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>5.92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>2572</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>30.57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>2368</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>28.14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>1629</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>19.36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8">
         <v>861</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>10.23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9">
         <v>236</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>2.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B10">
         <v>16</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>0.19</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="5"/>
     </row>
   </sheetData>
@@ -1511,9 +1556,9 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -1533,7 +1578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1553,7 +1598,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1573,7 +1618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -1593,7 +1638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1613,7 +1658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -1633,7 +1678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -1653,7 +1698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -1673,7 +1718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -1693,7 +1738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -1713,7 +1758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -1733,7 +1778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -1753,7 +1798,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -1773,7 +1818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -1793,7 +1838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -1813,7 +1858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -1833,7 +1878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -1853,7 +1898,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -1873,7 +1918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -1893,7 +1938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -1913,7 +1958,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -1933,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -1953,7 +1998,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>124</v>
       </c>
@@ -1973,7 +2018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -1993,7 +2038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -2013,7 +2058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>132</v>
       </c>
@@ -2033,7 +2078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>135</v>
       </c>
@@ -2053,7 +2098,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -2073,7 +2118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -2093,7 +2138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -2113,7 +2158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>146</v>
       </c>
@@ -2139,6 +2184,164 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5EDF69-9B0A-4E77-A976-14D8BDF90CD0}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2">
+        <v>750</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3">
+        <v>648</v>
+      </c>
+      <c r="C3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4">
+        <v>732</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5">
+        <v>750</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6">
+        <v>591</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7">
+        <v>639</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8">
+        <v>689</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9">
+        <v>651</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10">
+        <v>639</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11">
+        <v>641</v>
+      </c>
+      <c r="C11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12">
+        <v>580</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13">
+        <v>639</v>
+      </c>
+      <c r="C13">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BA839B-41C8-4FE3-9661-8C09C903DE2F}">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -2146,14 +2349,14 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="40.6328125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="5" max="5" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2161,7 +2364,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2181,7 +2384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2201,7 +2404,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2221,7 +2424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2241,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2261,7 +2464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2281,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2301,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2312,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B11">
         <f t="shared" ref="B11:C11" si="0">SUM(B3:B10)</f>
         <v>4761</v>
@@ -2330,7 +2533,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2341,7 +2544,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2354,7 +2557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2372,7 +2575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192DD4A1-BC62-4298-9244-D2658F562977}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -2380,225 +2583,225 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2">
         <v>42</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>0.49916805324459235</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3">
         <v>398</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>4.7302115521749464</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4">
         <v>1555</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>18.481102923698597</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5">
         <v>2119</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>25.184216781554554</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6">
         <v>1615</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>19.194200142619444</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="B7">
         <v>1133</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>13.465652483955312</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="B8">
         <v>496</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>5.8949370097456617</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>11</v>
       </c>
       <c r="B9">
         <v>345</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>4.1003090087948655</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>12</v>
       </c>
       <c r="B10">
         <v>302</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>3.5892560019015924</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>13</v>
       </c>
       <c r="B11">
         <v>304</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>3.6130259091989538</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>14</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>0.11884953648680771</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>15</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>5.9424768243403855E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>16</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>5.9424768243403855E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>17</v>
       </c>
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>0.13073449013548846</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>18</v>
       </c>
       <c r="B16">
         <v>7</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>8.3194675540765387E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>19</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>0.17827430473021155</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>20</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>0.21392916567625386</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>21</v>
       </c>
       <c r="B19">
         <v>33</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>0.39220347040646542</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>31</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>1.1884953648680769E-2</v>
       </c>
     </row>
@@ -2615,12 +2818,12 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="28.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2631,95 +2834,95 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>4019</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>47.77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>2974</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>35.35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4">
         <v>320</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>3.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>0.24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
         <v>11</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>0.13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
         <v>144</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>1.71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
         <v>795</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9">
         <v>131</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>1.56</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="5"/>
     </row>
   </sheetData>
@@ -2735,12 +2938,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2751,40 +2954,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="2">
         <v>7448</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>88.52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="2">
         <v>833</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>9.9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4">
         <v>133</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>1.58</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="5"/>
     </row>
   </sheetData>
@@ -2800,13 +3003,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="27.6328125" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -2817,106 +3020,106 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2">
         <v>68</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>0.81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3">
         <v>687</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>8.16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="2">
         <v>3117</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>37.049999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="2">
         <v>2224</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>26.43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="2">
         <v>698</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>976</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>11.6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>37</v>
       </c>
       <c r="B8">
         <v>244</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>2.9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9">
         <v>56</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>0.67</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10">
         <v>344</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>4.09</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="7"/>
     </row>
   </sheetData>
@@ -2929,53 +3132,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="9.36328125" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="9"/>
+    <col min="3" max="3" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>4791</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>56.94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>3623</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>43.06</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B4" s="2"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="5"/>
     </row>
   </sheetData>
@@ -2992,14 +3195,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="39.81640625" customWidth="1"/>
     <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="9"/>
+    <col min="4" max="4" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3009,11 +3212,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -3023,11 +3226,11 @@
       <c r="C2" s="2">
         <v>1145</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>13.608271927739482</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -3037,11 +3240,11 @@
       <c r="C3">
         <v>161</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>1.9134775374376041</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3051,11 +3254,11 @@
       <c r="C4">
         <v>512</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>6.0850962681245537</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -3065,11 +3268,11 @@
       <c r="C5" s="2">
         <v>2450</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>29.118136439267889</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -3079,11 +3282,11 @@
       <c r="C6" s="2">
         <v>1365</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>16.222961730449249</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -3093,11 +3296,11 @@
       <c r="C7" s="2">
         <v>2293</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>27.252198716425006</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3107,11 +3310,11 @@
       <c r="C8">
         <v>355</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>4.2191585452816733</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -3121,11 +3324,11 @@
       <c r="C9">
         <v>68</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>0.80817684811029245</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -3135,11 +3338,11 @@
       <c r="C10">
         <v>39</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>0.46351319229855004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3149,11 +3352,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>1.1884953648680769E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -3163,11 +3366,11 @@
       <c r="C12">
         <v>19</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>0.22581411932493461</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -3177,11 +3380,11 @@
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>3.565486094604231E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -3191,14 +3394,14 @@
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>3.565486094604231E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C16" s="2"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="5"/>
     </row>
   </sheetData>
@@ -3215,14 +3418,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="15.08984375" customWidth="1"/>
     <col min="3" max="3" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3236,7 +3439,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3247,7 +3450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3258,10 +3461,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="B4" s="2"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="5"/>
     </row>
   </sheetData>
@@ -3277,14 +3480,14 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3294,51 +3497,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" s="9" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="2">
         <v>5729</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>68.09</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" s="9" t="s">
         <v>155</v>
       </c>
       <c r="B3" s="2">
         <v>2580</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>30.67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B4">
         <v>71</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>0.84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5" s="9" t="s">
         <v>156</v>
       </c>
       <c r="B5">
         <v>34</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -3354,7 +3557,7 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="13.453125" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" customWidth="1"/>
@@ -3365,20 +3568,20 @@
     <col min="7" max="7" width="9.54296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
     </row>

--- a/External Data/reports/2021_termination_data.xlsx
+++ b/External Data/reports/2021_termination_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TedSc\OneDrive\Desktop\R Projects\indiana_abortion\External Data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081F96D6-6770-4D7B-93B7-B9BFFC939D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F0B65C-A4D0-43A3-B14C-62D630ADDC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="14460" windowHeight="9925" tabRatio="821" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" tabRatio="821" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_age" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="2021_monthly" sheetId="13" r:id="rId11"/>
     <sheet name="2021_procedure_location_wrksht" sheetId="12" r:id="rId12"/>
     <sheet name="2021_gestation_weeks" sheetId="11" r:id="rId13"/>
+    <sheet name="2021_non_res" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="178">
   <si>
     <t>Gestational Age</t>
   </si>
@@ -561,6 +562,24 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>abortions</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>state</t>
   </si>
 </sst>
 </file>
@@ -2187,7 +2206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5EDF69-9B0A-4E77-A976-14D8BDF90CD0}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2580,7 +2599,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -2803,6 +2822,77 @@
       </c>
       <c r="C20" s="8">
         <v>1.1884953648680769E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E5DE7E-2F1C-44F3-818B-586D04BE4CE6}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
